--- a/Parallel_Test/Executor.xlsx
+++ b/Parallel_Test/Executor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NIMIT/eclipse-workspace/Parallel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NIMIT/git/Parallel_Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -678,7 +678,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -698,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/Parallel_Test/Executor.xlsx
+++ b/Parallel_Test/Executor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>S.No</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>TC_05</t>
-  </si>
-  <si>
-    <t>TD3</t>
   </si>
   <si>
     <t>TC_06</t>
@@ -533,12 +530,13 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -569,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -578,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -598,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -609,16 +607,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -629,16 +627,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -652,13 +650,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -666,19 +664,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -686,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -706,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -718,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Parallel_Test/Executor.xlsx
+++ b/Parallel_Test/Executor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>S.No</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>TD6</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -710,7 +713,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>

--- a/Parallel_Test/Executor.xlsx
+++ b/Parallel_Test/Executor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>S.No</t>
   </si>
@@ -114,12 +114,21 @@
   </si>
   <si>
     <t>TD6</t>
+  </si>
+  <si>
+    <t>Test1_TD1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test2_TD1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -203,6 +212,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -533,7 +545,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,7 +585,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -590,10 +602,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>

--- a/Parallel_Test/Executor.xlsx
+++ b/Parallel_Test/Executor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NIMIT/git/Parallel_Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D7A9DE8-AEED-5D42-AB5E-5F83751E2F45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -541,11 +542,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">

--- a/Parallel_Test/Executor.xlsx
+++ b/Parallel_Test/Executor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NIMIT/git/Parallel_Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D7A9DE8-AEED-5D42-AB5E-5F83751E2F45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DDC9B09-2B27-E24B-8AB5-BB7502F884DE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
